--- a/Kyiv_Districts.xlsx
+++ b/Kyiv_Districts.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsapin/Desktop/projects/Coursera_Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA9056E-89AB-C14A-9BC7-9D121F1118EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DD8814-CA79-BF40-990D-7BB7033F8CC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{04F66F15-98DE-5F44-B346-C7F3C9796AE3}"/>
+    <workbookView xWindow="12360" yWindow="460" windowWidth="10000" windowHeight="9840" xr2:uid="{04F66F15-98DE-5F44-B346-C7F3C9796AE3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="readme" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="readme" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Golosiivskyi district</t>
   </si>
@@ -442,124 +441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7F3689-DC03-DD43-B97A-A1EA29BD0692}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516E87F2-C1F3-0B42-9397-625C90C02436}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>329.66666666666669</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>352</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
-        <v>333.66666666666669</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>493.66666666666669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3">
-        <v>476.33333333333331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3">
-        <v>324.33333333333331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3">
-        <v>377.33333333333331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3">
-        <v>360</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D37F0B-D59E-6444-A1CD-27154243E96D}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,7 +455,7 @@
     <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -580,7 +466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,8 +476,10 @@
       <c r="C2" s="3">
         <v>1516</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -601,8 +489,10 @@
       <c r="C3" s="3">
         <v>8653</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -612,8 +502,10 @@
       <c r="C4" s="3">
         <v>3075</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -624,7 +516,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -635,7 +527,7 @@
         <v>8482</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -646,7 +538,7 @@
         <v>7439</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -657,7 +549,7 @@
         <v>5075</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -668,7 +560,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -679,7 +571,7 @@
         <v>2886</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -695,7 +587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8ECEBAB-CAC9-DE4C-A8F6-5911FF940BCA}">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/Kyiv_Districts.xlsx
+++ b/Kyiv_Districts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsapin/Desktop/projects/Coursera_Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DD8814-CA79-BF40-990D-7BB7033F8CC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F64AB3-26F0-CC48-9658-1620E9B1C929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12360" yWindow="460" windowWidth="10000" windowHeight="9840" xr2:uid="{04F66F15-98DE-5F44-B346-C7F3C9796AE3}"/>
   </bookViews>
